--- a/bh3/500503607134671170_2021-03-10_18-09-37.xlsx
+++ b/bh3/500503607134671170_2021-03-10_18-09-37.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4273546911</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:30:19</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44271.60438657407</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -614,10 +628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-16 09:56:27</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44271.41420138889</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -686,10 +698,8 @@
           <t>4267872125</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-15 03:05:21</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44270.12871527778</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -757,10 +767,8 @@
           <t>4267875301</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-15 03:03:57</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44270.12774305556</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -828,10 +836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-13 15:49:55</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44268.65966435185</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -899,10 +905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-12 23:36:06</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44267.98340277778</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -966,10 +970,8 @@
           <t>4246647899</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:49:37</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44267.86778935185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1041,10 +1043,8 @@
           <t>4256061192</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-12 20:46:16</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44267.86546296296</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1121,10 +1121,8 @@
           <t>4246611442</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:40:06</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44267.81951388889</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1188,10 +1186,8 @@
           <t>4247417526</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-12 19:11:45</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44267.79982638889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1259,10 +1255,8 @@
           <t>4247425981</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-12 13:44:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44267.57274305556</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1330,10 +1324,8 @@
           <t>4246814165</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:45:27</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44267.48989583334</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1405,10 +1397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:11:19</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44267.46619212963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1473,10 +1463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-12 11:07:29</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44267.46353009259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1552,10 +1540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:49:50</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44267.45127314814</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1631,10 +1617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:28:24</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44267.43638888889</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1706,10 +1690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:22:29</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44267.43228009259</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1777,10 +1759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-12 10:18:45</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44267.4296875</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1848,10 +1828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-12 04:26:43</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44267.18521990741</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1923,10 +1901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-12 01:08:45</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44267.04774305555</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2002,10 +1978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-12 01:05:52</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44267.04574074074</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -2065,10 +2039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-12 00:25:33</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44267.01774305556</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2147,10 +2119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-12 00:25:17</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44267.01755787037</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2214,10 +2184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-11 23:42:50</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44266.9880787037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2285,10 +2253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-11 18:52:35</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44266.78651620371</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2356,10 +2322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-11 18:48:41</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44266.78380787037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2431,10 +2395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-11 18:20:45</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44266.76440972222</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2494,10 +2456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-11 18:20:20</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44266.76412037037</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2577,10 +2537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-11 17:58:01</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44266.74862268518</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2652,10 +2610,8 @@
           <t>4250855296</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-11 17:57:06</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44266.74798611111</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2727,10 +2683,8 @@
           <t>4246716784</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-11 17:54:33</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44266.74621527778</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2802,10 +2756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-11 17:07:17</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44266.7133912037</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
@@ -2869,10 +2821,8 @@
           <t>4249935379</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-11 13:09:58</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44266.54858796296</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2941,10 +2891,8 @@
           <t>4249773731</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:34:19</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44266.52383101852</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3008,10 +2956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:31:26</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44266.52182870371</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3087,10 +3033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:30:49</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44266.52140046296</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3166,10 +3110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:29:45</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44266.52065972222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3245,10 +3187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:23:01</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44266.51598379629</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3312,10 +3252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-11 12:12:38</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44266.50877314815</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3392,10 +3330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-11 10:51:59</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44266.45276620371</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3459,10 +3395,8 @@
           <t>4249386451</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-11 10:43:18</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44266.44673611111</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3530,10 +3464,8 @@
           <t>4247422707</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-11 10:42:14</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44266.44599537037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3601,10 +3533,8 @@
           <t>4249340765</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-11 10:26:23</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44266.43498842593</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3668,10 +3598,8 @@
           <t>4246814165</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-11 10:12:15</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44266.42517361111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3739,10 +3667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-11 10:11:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44266.42454861111</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3810,10 +3736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-11 09:56:48</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44266.41444444445</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3881,10 +3805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-11 08:30:57</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44266.35482638889</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3952,10 +3874,8 @@
           <t>4249023209</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-11 08:17:04</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44266.34518518519</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4031,10 +3951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-11 08:14:37</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44266.3434837963</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4102,10 +4020,8 @@
           <t>4246725375</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-11 08:12:13</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44266.34181712963</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4181,10 +4097,8 @@
           <t>4248494711</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-11 08:01:40</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44266.33449074074</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4256,10 +4170,8 @@
           <t>4246626719</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-11 07:14:02</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44266.30141203704</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4319,10 +4231,8 @@
           <t>4247845754</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-11 07:10:19</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44266.29883101852</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4382,10 +4292,8 @@
           <t>4247845754</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-11 07:08:10</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44266.29733796296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4445,10 +4353,8 @@
           <t>4248905278</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-11 06:56:53</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44266.28950231482</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4516,10 +4422,8 @@
           <t>4247425981</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-11 06:17:17</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44266.26200231481</v>
       </c>
       <c r="I57" t="n">
         <v>2</v>
@@ -4595,10 +4499,8 @@
           <t>4246738387</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-11 05:30:22</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44266.2294212963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4666,10 +4568,8 @@
           <t>4246738387</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-11 05:27:13</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44266.22723379629</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4737,10 +4637,8 @@
           <t>4248815982</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-11 04:20:13</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44266.18070601852</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4812,10 +4710,8 @@
           <t>4248808394</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-11 04:16:11</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44266.17790509259</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4887,10 +4783,8 @@
           <t>4246725375</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-11 03:58:16</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44266.16546296296</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4967,10 +4861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-11 02:33:02</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44266.10627314815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5042,10 +4934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-11 01:58:50</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44266.08252314815</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5117,10 +5007,8 @@
           <t>4248664203</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-11 01:54:36</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44266.07958333333</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5188,10 +5076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-11 01:52:41</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44266.07825231482</v>
       </c>
       <c r="I66" t="n">
         <v>2</v>
@@ -5267,10 +5153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:57:15</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44266.03975694445</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5338,10 +5222,8 @@
           <t>4248513466</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:50:46</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44266.03525462963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5417,10 +5299,8 @@
           <t>4248517055</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:50:24</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44266.035</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5496,10 +5376,8 @@
           <t>4246738387</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:49:22</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44266.03428240741</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5575,10 +5453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:46:23</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44266.03221064815</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5654,10 +5530,8 @@
           <t>4248494711</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:44:08</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44266.03064814815</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5733,10 +5607,8 @@
           <t>4246763202</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:41:54</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44266.02909722222</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5812,10 +5684,8 @@
           <t>4247845754</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:36:56</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44266.02564814815</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5891,10 +5761,8 @@
           <t>4248401892</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:18:16</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44266.01268518518</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5970,10 +5838,8 @@
           <t>4246814165</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:08:57</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44266.00621527778</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6041,10 +5907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:07:35</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44266.00526620371</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6116,10 +5980,8 @@
           <t>4248333037</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:06:41</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44266.0046412037</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6187,10 +6049,8 @@
           <t>4248333037</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-11 00:04:36</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44266.00319444444</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6258,10 +6118,8 @@
           <t>4247030429</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:54:48</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44265.99638888889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6334,10 +6192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:54:01</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44265.9958449074</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6401,10 +6257,8 @@
           <t>4248259765</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:49:44</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44265.99287037037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6472,10 +6326,8 @@
           <t>4248262733</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:49:18</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44265.99256944445</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6551,10 +6403,8 @@
           <t>4247030429</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:44:40</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44265.98935185185</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6622,10 +6472,8 @@
           <t>4247858931</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:44:00</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44265.98888888889</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6702,10 +6550,8 @@
           <t>4248128033</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:23:04</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44265.97435185185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6770,10 +6616,8 @@
           <t>4247417526</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:13:21</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44265.96760416667</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6842,10 +6686,8 @@
           <t>4247422707</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:08:49</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44265.96445601852</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6921,10 +6763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:06:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44265.96266203704</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -6988,10 +6828,8 @@
           <t>4248019618</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-10 23:03:10</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44265.96053240741</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7059,10 +6897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:57:01</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44265.95626157407</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7127,10 +6963,8 @@
           <t>4247845754</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:48:36</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44265.95041666667</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7190,10 +7024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:47:02</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44265.9493287037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7261,10 +7093,8 @@
           <t>4246709671</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:46:35</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44265.9490162037</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7336,10 +7166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:46:12</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44265.94875</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7403,10 +7231,8 @@
           <t>4247845754</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:35:01</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44265.9409837963</v>
       </c>
       <c r="I96" t="n">
         <v>4</v>
@@ -7474,10 +7300,8 @@
           <t>4246645336</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:34:30</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44265.940625</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7554,10 +7378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:34:17</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44265.94047453703</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7621,10 +7443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:33:38</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44265.94002314815</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7700,10 +7520,8 @@
           <t>4247858931</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:33:33</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44265.93996527778</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7775,10 +7593,8 @@
           <t>4247845754</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:30:35</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44265.93790509259</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7838,10 +7654,8 @@
           <t>4247835615</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:28:14</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44265.93627314815</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7909,10 +7723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:27:43</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44265.93591435185</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7980,10 +7792,8 @@
           <t>4247817086</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:25:55</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44265.93466435185</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8043,10 +7853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:10:39</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44265.9240625</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8118,10 +7926,8 @@
           <t>4247735540</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:09:57</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44265.92357638889</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8197,10 +8003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-10 22:09:36</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44265.92333333333</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8276,10 +8080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:57:53</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44265.91519675926</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8343,10 +8145,8 @@
           <t>4247422707</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:51:55</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44265.91105324074</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8422,10 +8222,8 @@
           <t>4246941749</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:51:08</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44265.91050925926</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8493,10 +8291,8 @@
           <t>4246681261</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:51:01</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44265.91042824074</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8564,10 +8360,8 @@
           <t>4247620730</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:47:19</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44265.90785879629</v>
       </c>
       <c r="I112" t="n">
         <v>3</v>
@@ -8635,10 +8429,8 @@
           <t>4246754784</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:44:56</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44265.9062037037</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8710,10 +8502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:40:55</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44265.90341435185</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8773,10 +8563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:40:45</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44265.90329861111</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8844,10 +8632,8 @@
           <t>4246754784</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:40:11</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44265.90290509259</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8911,10 +8697,8 @@
           <t>4246604206</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:30:18</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44265.89604166667</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8982,10 +8766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:26:36</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44265.89347222223</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9053,10 +8835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:24:57</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44265.89232638889</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9128,10 +8908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:22:10</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44265.89039351852</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9195,10 +8973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:21:47</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44265.89012731481</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9270,10 +9046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:21:26</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44265.88988425926</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9337,10 +9111,8 @@
           <t>4247469110</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:18:24</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44265.88777777777</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9416,10 +9188,8 @@
           <t>4247467349</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:17:23</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44265.88707175926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9483,10 +9253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:17:02</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44265.8868287037</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9550,10 +9318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:16:59</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44265.88679398148</v>
       </c>
       <c r="I126" t="n">
         <v>2</v>
@@ -9617,10 +9383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:15:47</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44265.88596064815</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9680,10 +9444,8 @@
           <t>4247006657</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:13:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44265.88435185186</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9759,10 +9521,8 @@
           <t>4247425981</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:08:44</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44265.88106481481</v>
       </c>
       <c r="I129" t="n">
         <v>3</v>
@@ -9830,10 +9590,8 @@
           <t>4247422707</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:08:39</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44265.88100694444</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9901,10 +9659,8 @@
           <t>4247417526</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:07:21</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44265.88010416667</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9972,10 +9728,8 @@
           <t>4246736265</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:04:42</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44265.87826388889</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10043,10 +9797,8 @@
           <t>4247391978</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:02:29</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44265.87672453704</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10114,10 +9866,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-10 21:01:00</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44265.87569444445</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10181,10 +9931,8 @@
           <t>4247375024</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:58:26</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44265.87391203704</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10260,10 +10008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:56:36</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44265.87263888889</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10323,10 +10069,8 @@
           <t>4247351129</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:54:07</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44265.87091435185</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10390,10 +10134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:53:50</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44265.8707175926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10466,10 +10208,8 @@
           <t>4247338495</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:52:25</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44265.86973379629</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10533,10 +10273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:50:31</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44265.86841435185</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10608,10 +10346,8 @@
           <t>4247030429</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:48:23</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44265.86693287037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10685,10 +10421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:42:59</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44265.86318287037</v>
       </c>
       <c r="I142" t="n">
         <v>14</v>
@@ -10764,10 +10498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:34:58</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44265.85761574074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10835,10 +10567,8 @@
           <t>4246736265</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:34:31</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44265.85730324074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10910,10 +10640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:27:30</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44265.85243055555</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10981,10 +10709,8 @@
           <t>4246681261</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:26:37</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44265.85181712963</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11052,10 +10778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:26:34</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44265.85178240741</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11131,10 +10855,8 @@
           <t>4246736265</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:25:29</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44265.85103009259</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11211,10 +10933,8 @@
           <t>4247201691</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:22:30</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44265.84895833334</v>
       </c>
       <c r="I149" t="n">
         <v>1</v>
@@ -11282,10 +11002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:20:55</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44265.8478587963</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11361,10 +11079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:19:48</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44265.84708333333</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11428,10 +11144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:19:47</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44265.84707175926</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -11491,10 +11205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:18:18</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44265.84604166666</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11571,10 +11283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:17:22</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44265.84539351852</v>
       </c>
       <c r="I154" t="n">
         <v>6</v>
@@ -11642,10 +11352,8 @@
           <t>4246647899</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:17:19</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44265.84535879629</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11713,10 +11421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:15:27</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44265.8440625</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11784,10 +11490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:14:51</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44265.84364583333</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11864,10 +11568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:14:51</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44265.84364583333</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11935,10 +11637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:11:47</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44265.84151620371</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12006,10 +11706,8 @@
           <t>4247030429</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:08:11</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44265.8390162037</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12077,10 +11775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:06:57</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44265.83815972223</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12148,10 +11844,8 @@
           <t>4247113923</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:05:07</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44265.83688657408</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12227,10 +11921,8 @@
           <t>4246814165</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-10 20:00:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44265.83340277777</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12306,10 +11998,8 @@
           <t>4247089589</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:59:58</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44265.83331018518</v>
       </c>
       <c r="I164" t="n">
         <v>3</v>
@@ -12385,10 +12075,8 @@
           <t>4246814165</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:57:42</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44265.83173611111</v>
       </c>
       <c r="I165" t="n">
         <v>16</v>
@@ -12456,10 +12144,8 @@
           <t>4246763202</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:53:51</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44265.8290625</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12527,10 +12213,8 @@
           <t>4247035560</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:47:05</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44265.82436342593</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12602,10 +12286,8 @@
           <t>4247024491</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:46:23</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44265.82387731481</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12673,10 +12355,8 @@
           <t>4247030429</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:45:01</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44265.82292824074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12748,10 +12428,8 @@
           <t>4247013022</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:43:05</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44265.82158564815</v>
       </c>
       <c r="I170" t="n">
         <v>1</v>
@@ -12815,10 +12493,8 @@
           <t>4247008678</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:42:41</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44265.82130787037</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12890,10 +12566,8 @@
           <t>4246645336</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:42:24</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44265.82111111111</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12957,10 +12631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:42:18</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44265.82104166667</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13028,10 +12700,8 @@
           <t>4247006657</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:41:23</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44265.82040509259</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13103,10 +12773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:38:27</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44265.81836805555</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13174,10 +12842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:38:24</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44265.81833333334</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13249,10 +12915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:36:32</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44265.81703703704</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13316,10 +12980,8 @@
           <t>4246814165</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:36:00</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44265.81666666667</v>
       </c>
       <c r="I178" t="n">
         <v>11</v>
@@ -13391,10 +13053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:29:43</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44265.81230324074</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13462,10 +13122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:29:36</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44265.81222222222</v>
       </c>
       <c r="I180" t="n">
         <v>2</v>
@@ -13530,10 +13188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:28:03</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44265.81114583334</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13593,10 +13249,8 @@
           <t>4246634743</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:27:41</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44265.81089120371</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13660,10 +13314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:27:33</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44265.81079861111</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13731,10 +13383,8 @@
           <t>4246941749</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:26:18</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44265.80993055556</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13810,10 +13460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:25:50</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44265.80960648148</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13877,10 +13525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:25:32</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44265.80939814815</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13944,10 +13590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:24:25</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44265.80862268519</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14015,10 +13659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:23:27</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44265.80795138889</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14083,10 +13725,8 @@
           <t>4246918205</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:23:25</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44265.80792824074</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14162,10 +13802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:21:46</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44265.80678240741</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14237,10 +13875,8 @@
           <t>4246645336</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:20:27</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44265.80586805556</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14316,10 +13952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:20:21</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44265.80579861111</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14391,10 +14025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:20:20</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44265.80578703704</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14466,10 +14098,8 @@
           <t>4246903536</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:20:16</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44265.80574074074</v>
       </c>
       <c r="I194" t="n">
         <v>17</v>
@@ -14537,10 +14167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:19:58</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44265.80553240741</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14600,10 +14228,8 @@
           <t>4246626719</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:15:51</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44265.80267361111</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14671,10 +14297,8 @@
           <t>4246883144</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:14:38</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44265.8018287037</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14751,10 +14375,8 @@
           <t>4246882105</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:13:58</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44265.80136574074</v>
       </c>
       <c r="I198" t="n">
         <v>2</v>
@@ -14830,10 +14452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:13:52</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44265.8012962963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14901,10 +14521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:12:25</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44265.80028935185</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14980,10 +14598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:07:32</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44265.79689814815</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15059,10 +14675,8 @@
           <t>4246647899</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:07:13</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44265.79667824074</v>
       </c>
       <c r="I202" t="n">
         <v>11</v>
@@ -15138,10 +14752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:06:53</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44265.79644675926</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15205,10 +14817,8 @@
           <t>4246841254</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:05:51</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44265.79572916667</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15276,10 +14886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:05:42</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44265.795625</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15355,10 +14963,8 @@
           <t>4246709671</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:02:42</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44265.79354166667</v>
       </c>
       <c r="I206" t="n">
         <v>29</v>
@@ -15430,10 +15036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:02:31</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44265.79341435185</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15509,10 +15113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:02:06</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44265.793125</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15584,10 +15186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:01:21</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44265.79260416667</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15663,10 +15263,8 @@
           <t>4246814165</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:01:18</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44265.79256944444</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -15734,10 +15332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:00:48</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44265.79222222222</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15809,10 +15405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-10 19:00:35</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44265.79207175926</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15876,10 +15470,8 @@
           <t>4246770546</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:59:40</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44265.79143518519</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -15955,10 +15547,8 @@
           <t>4246803210</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:58:36</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44265.79069444445</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16034,10 +15624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:58:00</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44265.79027777778</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16105,10 +15693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:57:30</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44265.78993055555</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16172,10 +15758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:57:11</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44265.78971064815</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16247,10 +15831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:54:58</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44265.7881712963</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16318,10 +15900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:54:52</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44265.78810185185</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16385,10 +15965,8 @@
           <t>4246782718</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:53:54</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44265.78743055555</v>
       </c>
       <c r="I220" t="n">
         <v>6</v>
@@ -16464,10 +16042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:53:46</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44265.78733796296</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16539,10 +16115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:52:18</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44265.78631944444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16614,10 +16188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:51:53</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44265.78603009259</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16693,10 +16265,8 @@
           <t>4246770546</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:50:36</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44265.78513888889</v>
       </c>
       <c r="I224" t="n">
         <v>12</v>
@@ -16772,10 +16342,8 @@
           <t>4246704956</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:50:22</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44265.78497685185</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16851,10 +16419,8 @@
           <t>4246763202</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:50:02</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44265.78474537037</v>
       </c>
       <c r="I226" t="n">
         <v>4</v>
@@ -16930,10 +16496,8 @@
           <t>4246766158</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:49:34</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44265.7844212963</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17009,10 +16573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:49:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44265.78428240741</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17076,10 +16638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:49:18</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44265.78423611111</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17139,10 +16699,8 @@
           <t>4246754784</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:49:07</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44265.7841087963</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17219,10 +16777,8 @@
           <t>4246754784</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:48:41</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44265.78380787037</v>
       </c>
       <c r="I231" t="n">
         <v>2</v>
@@ -17291,10 +16847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:48:40</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44265.78379629629</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17362,10 +16916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:47:26</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44265.78293981482</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17441,10 +16993,8 @@
           <t>4246744823</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:46:57</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44265.78260416666</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17520,10 +17070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:46:53</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44265.78255787037</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17599,10 +17147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:46:43</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44265.78244212963</v>
       </c>
       <c r="I236" t="n">
         <v>15</v>
@@ -17678,10 +17224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:46:33</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44265.78232638889</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17757,10 +17301,8 @@
           <t>4246751211</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:46:19</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44265.78216435185</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17820,10 +17362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:45:51</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44265.78184027778</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17899,10 +17439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:45:23</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44265.7815162037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17978,10 +17516,8 @@
           <t>4246725375</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:44:59</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44265.78123842592</v>
       </c>
       <c r="I241" t="n">
         <v>3</v>
@@ -18057,10 +17593,8 @@
           <t>4246739117</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:44:52</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44265.78115740741</v>
       </c>
       <c r="I242" t="n">
         <v>7</v>
@@ -18136,10 +17670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:44:29</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44265.78089120371</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18215,10 +17747,8 @@
           <t>4246738387</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:44:20</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44265.78078703704</v>
       </c>
       <c r="I244" t="n">
         <v>18</v>
@@ -18290,10 +17820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:43:53</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44265.78047453704</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18361,10 +17889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:43:33</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44265.78024305555</v>
       </c>
       <c r="I246" t="n">
         <v>26</v>
@@ -18424,10 +17950,8 @@
           <t>4246729619</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:43:29</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44265.78019675926</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18491,10 +18015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:43:25</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44265.78015046296</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18558,10 +18080,8 @@
           <t>4246732395</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:43:08</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44265.77995370371</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18638,10 +18158,8 @@
           <t>4246716784</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:43:05</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44265.77991898148</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18717,10 +18235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:42:57</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44265.77982638889</v>
       </c>
       <c r="I251" t="n">
         <v>32</v>
@@ -18781,10 +18297,8 @@
           <t>4246736265</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:42:54</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44265.77979166667</v>
       </c>
       <c r="I252" t="n">
         <v>7</v>
@@ -18856,10 +18370,8 @@
           <t>4246728470</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:42:43</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44265.77966435185</v>
       </c>
       <c r="I253" t="n">
         <v>11</v>
@@ -18931,10 +18443,8 @@
           <t>4246727862</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:42:18</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44265.779375</v>
       </c>
       <c r="I254" t="n">
         <v>17</v>
@@ -19006,10 +18516,8 @@
           <t>4246730056</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:41:36</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44265.77888888889</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19073,10 +18581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:41:19</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44265.77869212963</v>
       </c>
       <c r="I256" t="n">
         <v>9</v>
@@ -19153,10 +18659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:41:10</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44265.77858796297</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19232,10 +18736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:40:21</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44265.77802083334</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19307,10 +18809,8 @@
           <t>4246647899</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:40:18</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44265.77798611111</v>
       </c>
       <c r="I259" t="n">
         <v>8</v>
@@ -19382,10 +18882,8 @@
           <t>4246594662</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:40:01</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44265.77778935185</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19466,10 +18964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:39:47</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44265.77762731481</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19547,10 +19043,8 @@
           <t>4246716784</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:39:31</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44265.77744212963</v>
       </c>
       <c r="I262" t="n">
         <v>13</v>
@@ -19614,10 +19108,8 @@
           <t>4246709671</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:38:29</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44265.77672453703</v>
       </c>
       <c r="I263" t="n">
         <v>2</v>
@@ -19681,10 +19173,8 @@
           <t>4246704956</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:38:20</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44265.77662037037</v>
       </c>
       <c r="I264" t="n">
         <v>14</v>
@@ -19752,10 +19242,8 @@
           <t>4246708228</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:38:20</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44265.77662037037</v>
       </c>
       <c r="I265" t="n">
         <v>6</v>
@@ -19828,10 +19316,8 @@
           <t>4246708228</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:37:31</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44265.77605324074</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19899,10 +19385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:37:23</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44265.77596064815</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19974,10 +19458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:37:03</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44265.77572916666</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20053,10 +19535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:35:55</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44265.77494212963</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20132,10 +19612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:35:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44265.77475694445</v>
       </c>
       <c r="I270" t="n">
         <v>8</v>
@@ -20203,10 +19681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:35:17</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44265.77450231482</v>
       </c>
       <c r="I271" t="n">
         <v>7</v>
@@ -20274,10 +19750,8 @@
           <t>4246694401</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:35:00</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44265.77430555555</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20349,10 +19823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:34:18</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44265.77381944445</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20424,10 +19896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:34:14</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44265.77377314815</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20500,10 +19970,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:34:03</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44265.77364583333</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20575,10 +20043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:33:57</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44265.77357638889</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20642,10 +20108,8 @@
           <t>4246681261</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:33:08</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44265.77300925926</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20713,10 +20177,8 @@
           <t>4246626719</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:33:03</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44265.77295138889</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20780,10 +20242,8 @@
           <t>4246690722</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:32:33</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44265.77260416667</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20855,10 +20315,8 @@
           <t>4246674788</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:31:49</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44265.77209490741</v>
       </c>
       <c r="I280" t="n">
         <v>5</v>
@@ -20926,10 +20384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:31:33</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44265.77190972222</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21005,10 +20461,8 @@
           <t>4246681261</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:31:32</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44265.77189814814</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21076,10 +20530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:30:59</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44265.77151620371</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21155,10 +20607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:30:34</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44265.77122685185</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21229,10 +20679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:30:31</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44265.77119212963</v>
       </c>
       <c r="I285" t="n">
         <v>5</v>
@@ -21308,10 +20756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:30:13</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44265.7709837963</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21379,10 +20825,8 @@
           <t>4246672176</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:30:08</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44265.77092592593</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21450,10 +20894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:30:05</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44265.77089120371</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21530,10 +20972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:30:04</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44265.77087962963</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21602,10 +21042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:29:39</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44265.77059027777</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21669,10 +21107,8 @@
           <t>4246647899</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:29:36</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44265.77055555556</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21740,10 +21176,8 @@
           <t>4246667781</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:29:16</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44265.77032407407</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21811,10 +21245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:28:44</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44265.7699537037</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21882,10 +21314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:28:37</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44265.76987268519</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21961,10 +21391,8 @@
           <t>4246658936</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:28:00</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44265.76944444444</v>
       </c>
       <c r="I295" t="n">
         <v>12</v>
@@ -22040,10 +21468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:27:29</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44265.76908564815</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22107,10 +21533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:26:59</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44265.76873842593</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22178,10 +21602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:26:30</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44265.76840277778</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22249,10 +21671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:26:15</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44265.76822916666</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22328,10 +21748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:26:15</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44265.76822916666</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22403,10 +21821,8 @@
           <t>4246653050</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:26:12</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44265.76819444444</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22474,10 +21890,8 @@
           <t>4246605032</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:25:33</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44265.76774305556</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22545,10 +21959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:25:13</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44265.76751157407</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22624,10 +22036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:25:12</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44265.7675</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22691,10 +22101,8 @@
           <t>4246643735</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:24:31</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44265.76702546296</v>
       </c>
       <c r="I305" t="n">
         <v>4</v>
@@ -22770,10 +22178,8 @@
           <t>4246643705</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:24:29</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44265.76700231482</v>
       </c>
       <c r="I306" t="n">
         <v>11</v>
@@ -22849,10 +22255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:24:05</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44265.76672453704</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22916,10 +22320,8 @@
           <t>4246639728</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:24:05</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44265.76672453704</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22979,10 +22381,8 @@
           <t>4246647899</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:24:02</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44265.76668981482</v>
       </c>
       <c r="I309" t="n">
         <v>21</v>
@@ -23058,10 +22458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:23:59</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44265.76665509259</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -23129,10 +22527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:23:37</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44265.76640046296</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23200,10 +22596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:23:27</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44265.76628472222</v>
       </c>
       <c r="I312" t="n">
         <v>138</v>
@@ -23271,10 +22665,8 @@
           <t>4246646597</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:23:11</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44265.76609953704</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23346,10 +22738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:22:48</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44265.76583333333</v>
       </c>
       <c r="I314" t="n">
         <v>7</v>
@@ -23417,10 +22807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:22:47</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44265.76582175926</v>
       </c>
       <c r="I315" t="n">
         <v>35</v>
@@ -23496,10 +22884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:22:41</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44265.76575231482</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23559,10 +22945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:22:25</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44265.76556712963</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23636,10 +23020,8 @@
           <t>4246645336</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:22:22</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44265.76553240741</v>
       </c>
       <c r="I318" t="n">
         <v>171</v>
@@ -23711,10 +23093,8 @@
           <t>4246634743</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:21:58</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44265.76525462963</v>
       </c>
       <c r="I319" t="n">
         <v>65</v>
@@ -23789,10 +23169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:21:54</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44265.76520833333</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23861,10 +23239,8 @@
           <t>4246622606</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:21:37</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44265.76501157408</v>
       </c>
       <c r="I321" t="n">
         <v>5</v>
@@ -23936,10 +23312,8 @@
           <t>4246635815</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:21:32</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44265.76495370371</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24008,10 +23382,8 @@
           <t>4246598743</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:21:31</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44265.76494212963</v>
       </c>
       <c r="I323" t="n">
         <v>2</v>
@@ -24083,10 +23455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:21:25</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44265.76487268518</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24158,10 +23528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:21:20</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44265.76481481481</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24229,10 +23597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:20:50</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44265.76446759259</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24304,10 +23670,8 @@
           <t>4246627895</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:20:34</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44265.76428240741</v>
       </c>
       <c r="I327" t="n">
         <v>3</v>
@@ -24383,10 +23747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:20:26</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44265.76418981481</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24454,10 +23816,8 @@
           <t>4246623997</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:20:19</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44265.7641087963</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24529,10 +23889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:20:18</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44265.76409722222</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24596,10 +23954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:20:14</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44265.76405092593</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24663,10 +24019,8 @@
           <t>4246626719</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:19:47</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44265.76373842593</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24742,10 +24096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:19:39</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44265.76364583334</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24817,10 +24169,8 @@
           <t>4246622606</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:19:25</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44265.7634837963</v>
       </c>
       <c r="I334" t="n">
         <v>4</v>
@@ -24896,10 +24246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:19:14</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44265.76335648148</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24971,10 +24319,8 @@
           <t>4246607032</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:57</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44265.76315972222</v>
       </c>
       <c r="I336" t="n">
         <v>2</v>
@@ -25051,10 +24397,8 @@
           <t>4246598743</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:57</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44265.76315972222</v>
       </c>
       <c r="I337" t="n">
         <v>8</v>
@@ -25126,10 +24470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:36</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44265.76291666667</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25205,10 +24547,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:35</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44265.76290509259</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25276,10 +24616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:35</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44265.76290509259</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25347,10 +24685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:34</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44265.76289351852</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25426,10 +24762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:31</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44265.7628587963</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25505,10 +24839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:19</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44265.7627199074</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25576,10 +24908,8 @@
           <t>4246614550</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:18</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44265.76270833334</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25655,10 +24985,8 @@
           <t>4246607032</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:11</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44265.76262731481</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25730,10 +25058,8 @@
           <t>4246612994</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:18:00</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44265.7625</v>
       </c>
       <c r="I346" t="n">
         <v>4</v>
@@ -25810,10 +25136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:17:42</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44265.76229166667</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25885,10 +25209,8 @@
           <t>4246618028</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:17:32</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44265.76217592593</v>
       </c>
       <c r="I348" t="n">
         <v>21</v>
@@ -25948,10 +25270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:17:22</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44265.76206018519</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26019,10 +25339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:17:15</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44265.76197916667</v>
       </c>
       <c r="I350" t="n">
         <v>8</v>
@@ -26090,10 +25408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:17:15</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44265.76197916667</v>
       </c>
       <c r="I351" t="n">
         <v>8</v>
@@ -26169,10 +25485,8 @@
           <t>4246612994</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:17:15</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44265.76197916667</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26244,10 +25558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:56</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44265.76175925926</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26319,10 +25631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:41</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44265.76158564815</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26390,10 +25700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:41</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44265.76158564815</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26465,10 +25773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:32</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44265.76148148148</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26536,10 +25842,8 @@
           <t>4246611442</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:11</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44265.76123842593</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26607,10 +25911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:09</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44265.76121527778</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26682,10 +25984,8 @@
           <t>4246598743</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:06</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44265.76118055556</v>
       </c>
       <c r="I359" t="n">
         <v>17</v>
@@ -26757,10 +26057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:16:00</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44265.76111111111</v>
       </c>
       <c r="I360" t="n">
         <v>12</v>
@@ -26836,10 +26134,8 @@
           <t>4246607032</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:44</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44265.76092592593</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26907,10 +26203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:36</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44265.76083333333</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26982,10 +26276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:30</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44265.76076388889</v>
       </c>
       <c r="I363" t="n">
         <v>13</v>
@@ -27057,10 +26349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:26</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44265.7607175926</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27120,10 +26410,8 @@
           <t>4246610263</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:24</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44265.76069444444</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27199,10 +26487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:21</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44265.76065972223</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27274,10 +26560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:15</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44265.76059027778</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27349,10 +26633,8 @@
           <t>4246604206</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:15:01</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44265.76042824074</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27416,10 +26698,8 @@
           <t>4246605677</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:14:49</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44265.76028935185</v>
       </c>
       <c r="I369" t="n">
         <v>5</v>
@@ -27487,10 +26767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:14:39</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44265.76017361111</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27558,10 +26836,8 @@
           <t>4246598743</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:14:24</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44265.76</v>
       </c>
       <c r="I371" t="n">
         <v>2</v>
@@ -27621,10 +26897,8 @@
           <t>4246605032</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:14:24</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44265.76</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27693,10 +26967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:14:19</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44265.75994212963</v>
       </c>
       <c r="I373" t="n">
         <v>2</v>
@@ -27764,10 +27036,8 @@
           <t>4246594662</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:14:10</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44265.75983796296</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27843,10 +27113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:50</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44265.75960648148</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27922,10 +27190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:45</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44265.75954861111</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27993,10 +27259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:39</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44265.75947916666</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -28070,10 +27334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:22</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44265.75928240741</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28145,10 +27407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:22</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44265.75928240741</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28224,10 +27484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:18</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44265.75923611111</v>
       </c>
       <c r="I380" t="n">
         <v>200</v>
@@ -28299,10 +27557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:10</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44265.75914351852</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28370,10 +27626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:13:06</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44265.75909722222</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28445,10 +27699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:55</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44265.75896990741</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28516,10 +27768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:51</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44265.75892361111</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28595,10 +27845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:49</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44265.75890046296</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28674,10 +27922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:46</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44265.75886574074</v>
       </c>
       <c r="I386" t="n">
         <v>310</v>
@@ -28753,10 +27999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:42</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44265.75881944445</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28832,10 +28076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:39</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44265.75878472222</v>
       </c>
       <c r="I388" t="n">
         <v>237</v>
@@ -28899,10 +28141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:36</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44265.75875</v>
       </c>
       <c r="I389" t="n">
         <v>113</v>
@@ -28970,10 +28210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:34</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44265.75872685185</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29033,10 +28271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:34</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44265.75872685185</v>
       </c>
       <c r="I391" t="n">
         <v>330</v>
@@ -29100,10 +28336,8 @@
           <t>4246591385</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:12:03</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44265.75836805555</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -29173,10 +28407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:59</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44265.75832175926</v>
       </c>
       <c r="I393" t="n">
         <v>3</v>
@@ -29252,10 +28484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:58</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44265.75831018519</v>
       </c>
       <c r="I394" t="n">
         <v>58</v>
@@ -29332,10 +28562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:51</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44265.75822916667</v>
       </c>
       <c r="I395" t="n">
         <v>26</v>
@@ -29411,10 +28639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:48</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44265.75819444445</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29490,10 +28716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:46</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44265.75817129629</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29561,10 +28785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:45</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44265.75815972222</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29632,10 +28854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:44</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44265.75814814815</v>
       </c>
       <c r="I399" t="n">
         <v>2</v>
@@ -29703,10 +28923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:36</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44265.75805555555</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29783,10 +29001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:35</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44265.75804398148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29854,10 +29070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:32</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44265.75800925926</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29921,10 +29135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:29</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44265.75797453704</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29996,10 +29208,8 @@
           <t>4246588719</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:27</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44265.75795138889</v>
       </c>
       <c r="I404" t="n">
         <v>10</v>
@@ -30067,10 +29277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:25</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44265.75792824074</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30146,10 +29354,8 @@
           <t>4246588525</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:19</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44265.7578587963</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30217,10 +29423,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:17</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44265.75783564815</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30292,10 +29496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:09</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44265.75774305555</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30371,10 +29573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:08</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44265.75773148148</v>
       </c>
       <c r="I409" t="n">
         <v>86</v>
@@ -30450,10 +29650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:11:07</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44265.75771990741</v>
       </c>
       <c r="I410" t="n">
         <v>412</v>
@@ -30529,10 +29727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:56</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44265.75759259259</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30608,10 +29804,8 @@
           <t>4246587903</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:55</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44265.75758101852</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -30683,10 +29877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:53</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44265.75755787037</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30762,10 +29954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:47</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44265.75748842592</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30833,10 +30023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:40</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44265.75740740741</v>
       </c>
       <c r="I415" t="n">
         <v>12</v>
@@ -30904,10 +30092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:36</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44265.75736111111</v>
       </c>
       <c r="I416" t="n">
         <v>1014</v>
@@ -30971,10 +30157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:36</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44265.75736111111</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31046,10 +30230,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:27</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44265.75725694445</v>
       </c>
       <c r="I418" t="n">
         <v>8</v>
@@ -31121,10 +30303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:25</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44265.7572337963</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31193,10 +30373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:24</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44265.75722222222</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31272,10 +30450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:22</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44265.75719907408</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31351,10 +30527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:20</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44265.75717592592</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31418,10 +30592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:20</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44265.75717592592</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31497,10 +30669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:15</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44265.75711805555</v>
       </c>
       <c r="I424" t="n">
         <v>2</v>
@@ -31572,10 +30742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:14</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44265.75710648148</v>
       </c>
       <c r="I425" t="n">
         <v>34</v>
@@ -31643,10 +30811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:11</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44265.75707175926</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31722,10 +30888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:03</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44265.75697916667</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31797,10 +30961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-10 18:10:01</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44265.75695601852</v>
       </c>
       <c r="I428" t="n">
         <v>1</v>
